--- a/docs/理想伤害统计表.xlsx
+++ b/docs/理想伤害统计表.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>战斗区域</t>
   </si>
@@ -77,10 +77,13 @@
     <t>0</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>385</t>
   </si>
   <si>
-    <t>1.09</t>
+    <t>1.11</t>
   </si>
   <si>
     <t>粗布缠手</t>
@@ -101,55 +104,55 @@
     <t>368</t>
   </si>
   <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>敌人3(内功)</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>敌人4(内功)</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>7.01</t>
+  </si>
+  <si>
+    <t>锦缠手</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>侠客1(内功)</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
     <t>2.02</t>
   </si>
   <si>
-    <t>敌人3(内功)</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>敌人4(内功)</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>锦缠手</t>
-  </si>
-  <si>
-    <t>286</t>
-  </si>
-  <si>
-    <t>侠客1(内功)</t>
-  </si>
-  <si>
-    <t>425</t>
-  </si>
-  <si>
-    <t>1.01</t>
-  </si>
-  <si>
-    <t>407</t>
-  </si>
-  <si>
-    <t>2.05</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
     <t>406</t>
   </si>
   <si>
-    <t>2.04</t>
+    <t>2.03</t>
   </si>
   <si>
     <t>8</t>
@@ -164,25 +167,16 @@
     <t>470</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>452</t>
+    <t>451</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>451</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>9.16</t>
-  </si>
-  <si>
-    <t>87</t>
+    <t>9.06</t>
+  </si>
+  <si>
+    <t>86</t>
   </si>
   <si>
     <t>侠客3(内功)</t>
@@ -191,28 +185,28 @@
     <t>516</t>
   </si>
   <si>
-    <t>510</t>
-  </si>
-  <si>
-    <t>1.32</t>
+    <t>509</t>
+  </si>
+  <si>
+    <t>1.36</t>
   </si>
   <si>
     <t>497</t>
   </si>
   <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
+    <t>85</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>29</t>
+    <t>28</t>
   </si>
   <si>
     <t>临安府</t>
@@ -346,25 +340,25 @@
         <v>19</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>20</v>
@@ -378,7 +372,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>19</v>
@@ -393,28 +387,28 @@
         <v>19</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>20</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>20</v>
@@ -428,7 +422,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>19</v>
@@ -443,28 +437,28 @@
         <v>19</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>20</v>
@@ -478,7 +472,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>19</v>
@@ -493,7 +487,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>20</v>
@@ -502,22 +496,22 @@
         <v>20</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -525,7 +519,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>18</v>
@@ -543,28 +537,28 @@
         <v>19</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>20</v>
@@ -575,10 +569,10 @@
         <v>16</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>19</v>
@@ -593,28 +587,28 @@
         <v>19</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>20</v>
@@ -625,10 +619,10 @@
         <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>19</v>
@@ -643,28 +637,28 @@
         <v>19</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>20</v>
@@ -675,10 +669,10 @@
         <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>19</v>
@@ -693,7 +687,7 @@
         <v>20</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>20</v>
@@ -702,22 +696,22 @@
         <v>20</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
@@ -725,7 +719,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>18</v>
@@ -749,22 +743,22 @@
         <v>20</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>20</v>
@@ -775,10 +769,10 @@
         <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>19</v>
@@ -796,7 +790,7 @@
         <v>19</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>51</v>
@@ -805,16 +799,16 @@
         <v>52</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P11" s="0" t="s">
         <v>20</v>
@@ -825,10 +819,10 @@
         <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>19</v>
@@ -846,25 +840,25 @@
         <v>19</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>52</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P12" s="0" t="s">
         <v>20</v>
@@ -875,49 +869,49 @@
         <v>16</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="O13" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="P13" s="0" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14">
@@ -925,7 +919,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>18</v>
@@ -949,22 +943,22 @@
         <v>20</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P14" s="0" t="s">
         <v>20</v>
@@ -975,46 +969,46 @@
         <v>16</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>59</v>
-      </c>
       <c r="K15" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P15" s="0" t="s">
         <v>20</v>
@@ -1025,10 +1019,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>19</v>
@@ -1049,22 +1043,22 @@
         <v>20</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K16" s="0" t="s">
         <v>52</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P16" s="0" t="s">
         <v>20</v>
@@ -1075,104 +1069,104 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="K17" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="0" t="s">
+      <c r="L17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="O17" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="P17" s="0" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>17</v>
@@ -1199,22 +1193,22 @@
         <v>20</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P19" s="0" t="s">
         <v>20</v>

--- a/docs/理想伤害统计表.xlsx
+++ b/docs/理想伤害统计表.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>战斗区域</t>
   </si>
@@ -65,154 +65,406 @@
     <t>临安郊外</t>
   </si>
   <si>
-    <t>主角(外功)</t>
-  </si>
-  <si>
-    <t>敌人1(外功)</t>
+    <t>主角</t>
+  </si>
+  <si>
+    <t>木桩</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>0</t>
+    <t>311/320(97%)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>布缠手</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>宋兵</t>
+  </si>
+  <si>
+    <t>291/320(90%)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>通用枪1</t>
+  </si>
+  <si>
+    <t>校场枪法</t>
+  </si>
+  <si>
+    <t>段阴徳</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>11.35</t>
+  </si>
+  <si>
+    <t>官刀</t>
+  </si>
+  <si>
+    <t>狠劈刀法</t>
+  </si>
+  <si>
+    <t>184/369(49%)</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>319/320(99%)</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>粗布缠手</t>
+  </si>
+  <si>
+    <t>太祖长拳谱</t>
+  </si>
+  <si>
+    <t>320/320(100%)</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>385</t>
-  </si>
-  <si>
-    <t>1.11</t>
-  </si>
-  <si>
-    <t>粗布缠手</t>
-  </si>
-  <si>
-    <t>太祖长拳谱|点苍剑法|六合刀法</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>敌人2(外功)</t>
+    <t>93</t>
+  </si>
+  <si>
+    <t>284/320(88%)</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>岳玲珑</t>
+  </si>
+  <si>
+    <t>468/470(99%)</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>岳家枪法精要</t>
+  </si>
+  <si>
+    <t>453/470(96%)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>151/470(32%)</t>
+  </si>
+  <si>
+    <t>13.45</t>
+  </si>
+  <si>
+    <t>临安府</t>
+  </si>
+  <si>
+    <t>地痞</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>208/320(65%)</t>
+  </si>
+  <si>
+    <t>9.95</t>
+  </si>
+  <si>
+    <t>通用刀1</t>
+  </si>
+  <si>
+    <t>柴刀三式</t>
+  </si>
+  <si>
+    <t>流氓</t>
+  </si>
+  <si>
+    <t>91/320(28%)</t>
+  </si>
+  <si>
+    <t>15.35</t>
+  </si>
+  <si>
+    <t>通用棍1</t>
+  </si>
+  <si>
+    <t>撒泼撕扯</t>
+  </si>
+  <si>
+    <t>曲灵风</t>
+  </si>
+  <si>
+    <t>741/741(100%)</t>
+  </si>
+  <si>
+    <t>青钢剑</t>
+  </si>
+  <si>
+    <t>玉箫剑法总决</t>
+  </si>
+  <si>
+    <t>姑苏府</t>
+  </si>
+  <si>
+    <t>倭寇</t>
+  </si>
+  <si>
+    <t>207/320(64%)</t>
+  </si>
+  <si>
+    <t>10.05</t>
+  </si>
+  <si>
+    <t>武士草薙三式</t>
+  </si>
+  <si>
+    <t>强盗</t>
   </si>
   <si>
     <t>99</t>
   </si>
   <si>
-    <t>368</t>
-  </si>
-  <si>
-    <t>2.01</t>
-  </si>
-  <si>
-    <t>敌人3(内功)</t>
-  </si>
-  <si>
-    <t>363</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>敌人4(内功)</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>7.01</t>
-  </si>
-  <si>
-    <t>锦缠手</t>
-  </si>
-  <si>
-    <t>287</t>
-  </si>
-  <si>
-    <t>侠客1(内功)</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>425</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>407</t>
-  </si>
-  <si>
-    <t>2.02</t>
-  </si>
-  <si>
-    <t>406</t>
-  </si>
-  <si>
-    <t>2.03</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>侠客2(外功)</t>
-  </si>
-  <si>
-    <t>470</t>
-  </si>
-  <si>
-    <t>451</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>9.06</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>侠客3(内功)</t>
-  </si>
-  <si>
-    <t>516</t>
-  </si>
-  <si>
-    <t>509</t>
-  </si>
-  <si>
-    <t>1.36</t>
-  </si>
-  <si>
-    <t>497</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>临安府</t>
-  </si>
-  <si>
-    <t>6291</t>
+    <t>94/320(29%)</t>
+  </si>
+  <si>
+    <t>15.25</t>
+  </si>
+  <si>
+    <t>通用特殊兵器1</t>
+  </si>
+  <si>
+    <t>回风三板斧</t>
+  </si>
+  <si>
+    <t>采花大盗</t>
+  </si>
+  <si>
+    <t>90/320(28%)</t>
+  </si>
+  <si>
+    <t>15.45</t>
+  </si>
+  <si>
+    <t>千里快刀</t>
+  </si>
+  <si>
+    <t>柯镇恶</t>
+  </si>
+  <si>
+    <t>715/741(96%)</t>
+  </si>
+  <si>
+    <t>骷髅拐杖</t>
+  </si>
+  <si>
+    <t>伏魔仗法总决</t>
+  </si>
+  <si>
+    <t>683/741(92%)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>685/741(92%)</t>
+  </si>
+  <si>
+    <t>5.85</t>
+  </si>
+  <si>
+    <t>朱聪</t>
+  </si>
+  <si>
+    <t>4.05</t>
+  </si>
+  <si>
+    <t>铁骨扇</t>
+  </si>
+  <si>
+    <t>分筋错骨手总决</t>
+  </si>
+  <si>
+    <t>698/741(94%)</t>
+  </si>
+  <si>
+    <t>4.65</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>韩宝驹</t>
+  </si>
+  <si>
+    <t>金龙软鞭</t>
+  </si>
+  <si>
+    <t>金龙鞭法总决</t>
+  </si>
+  <si>
+    <t>687/741(92%)</t>
+  </si>
+  <si>
+    <t>684/741(92%)</t>
+  </si>
+  <si>
+    <t>5.95</t>
+  </si>
+  <si>
+    <t>南希仁</t>
+  </si>
+  <si>
+    <t>纯钢扁担</t>
+  </si>
+  <si>
+    <t>南山拳法总决</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>全金发</t>
+  </si>
+  <si>
+    <t>716/741(96%)</t>
+  </si>
+  <si>
+    <t>大杆秤</t>
+  </si>
+  <si>
+    <t>杨家枪法精要</t>
+  </si>
+  <si>
+    <t>686/741(92%)</t>
+  </si>
+  <si>
+    <t>韩小莹</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>越女剑</t>
+  </si>
+  <si>
+    <t>越女剑法总决</t>
+  </si>
+  <si>
+    <t>5.75</t>
+  </si>
+  <si>
+    <t>太湖</t>
+  </si>
+  <si>
+    <t>铁尸梅超风</t>
+  </si>
+  <si>
+    <t>205/320(64%)</t>
+  </si>
+  <si>
+    <t>10.15</t>
+  </si>
+  <si>
+    <t>铁尸缠手(梅超风)</t>
+  </si>
+  <si>
+    <t>九阴白骨爪残卷</t>
+  </si>
+  <si>
+    <t>铜尸陈玄风</t>
+  </si>
+  <si>
+    <t>92/320(28%)</t>
+  </si>
+  <si>
+    <t>15.3</t>
+  </si>
+  <si>
+    <t>铜尸缠手(陈玄风)</t>
+  </si>
+  <si>
+    <t>摧心掌法残卷</t>
+  </si>
+  <si>
+    <t>太湖水贼</t>
+  </si>
+  <si>
+    <t>15.5</t>
+  </si>
+  <si>
+    <t>水寨看门刀法</t>
+  </si>
+  <si>
+    <t>水寨头领</t>
+  </si>
+  <si>
+    <t>89/320(27%)</t>
+  </si>
+  <si>
+    <t>鬼头刀法</t>
+  </si>
+  <si>
+    <t>陆乘风</t>
+  </si>
+  <si>
+    <t>竹叶缠手</t>
+  </si>
+  <si>
+    <t>旋风扫叶腿法总决</t>
+  </si>
+  <si>
+    <t>681/741(91%)</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>梅超风</t>
+  </si>
+  <si>
+    <t>714/741(96%)</t>
+  </si>
+  <si>
+    <t>铁尸缠手</t>
+  </si>
+  <si>
+    <t>6.05</t>
+  </si>
+  <si>
+    <t>陈玄风</t>
+  </si>
+  <si>
+    <t>铜尸缠手</t>
+  </si>
+  <si>
+    <t>682/741(92%)</t>
+  </si>
+  <si>
+    <t>5.8</t>
   </si>
 </sst>
 </file>
@@ -258,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -334,13 +586,13 @@
         <v>20</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>22</v>
@@ -355,10 +607,10 @@
         <v>25</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>20</v>
@@ -372,31 +624,31 @@
         <v>17</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>30</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>24</v>
@@ -405,10 +657,10 @@
         <v>25</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>20</v>
@@ -428,22 +680,22 @@
         <v>19</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>33</v>
@@ -455,13 +707,13 @@
         <v>25</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -472,46 +724,46 @@
         <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>20</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -519,10 +771,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>19</v>
@@ -534,31 +786,31 @@
         <v>20</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="0" t="s">
+      <c r="M6" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="N6" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>20</v>
@@ -569,10 +821,10 @@
         <v>16</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>19</v>
@@ -584,31 +836,31 @@
         <v>20</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>20</v>
@@ -619,10 +871,10 @@
         <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>19</v>
@@ -634,31 +886,31 @@
         <v>20</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>20</v>
@@ -669,49 +921,49 @@
         <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>20</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -719,10 +971,10 @@
         <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>19</v>
@@ -734,31 +986,31 @@
         <v>20</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J10" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="N10" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>20</v>
@@ -766,63 +1018,63 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>19</v>
@@ -834,31 +1086,31 @@
         <v>20</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="P12" s="0" t="s">
         <v>20</v>
@@ -866,63 +1118,63 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>20</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>19</v>
@@ -934,31 +1186,31 @@
         <v>20</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="P14" s="0" t="s">
         <v>20</v>
@@ -966,13 +1218,13 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>19</v>
@@ -984,31 +1236,31 @@
         <v>20</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="P15" s="0" t="s">
         <v>20</v>
@@ -1016,163 +1268,163 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="O17" s="0" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>19</v>
@@ -1184,33 +1436,1783 @@
         <v>20</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>20</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="P19" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="O30" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O31" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="O33" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O34" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="P34" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O35" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="P35" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="O36" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="P36" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="N37" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O37" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="P37" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O38" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P38" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="O39" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="P39" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="O40" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="P40" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M42" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N42" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O42" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="P42" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="M43" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="N43" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="O43" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="P43" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="N44" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="O44" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="P44" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="M45" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="N45" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O45" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P45" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="N46" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O46" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="P46" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="N47" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="O47" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="P47" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="M48" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="N48" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="O48" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="P48" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="N49" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P49" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="P50" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="N51" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="O51" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="P51" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="M52" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="N52" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="O52" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="P52" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="N53" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O53" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P53" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="M54" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="N54" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O54" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="P54" s="0" t="s">
         <v>20</v>
       </c>
     </row>
